--- a/branches/viral-load-suppression_fig-28/all-profiles.xlsx
+++ b/branches/viral-load-suppression_fig-28/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07T13:43:20+00:00</t>
+    <t>2023-02-07T13:44:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/viral-load-suppression_fig-28/all-profiles.xlsx
+++ b/branches/viral-load-suppression_fig-28/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07T13:44:50+00:00</t>
+    <t>2023-02-08T09:57:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2928,509 +2928,509 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
+    <t xml:space="preserve">integer
+</t>
+  </si>
+  <si>
+    <t>Actual result</t>
+  </si>
+  <si>
+    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
+  </si>
+  <si>
+    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
+  </si>
+  <si>
+    <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obs-7
+</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueInteger</t>
+  </si>
+  <si>
+    <t>valueInteger</t>
+  </si>
+  <si>
+    <t>Observation.dataAbsentReason</t>
+  </si>
+  <si>
+    <t>Why the result is missing</t>
+  </si>
+  <si>
+    <t>Provides a reason why the expected value in the element Observation.value[x] is missing.</t>
+  </si>
+  <si>
+    <t>Null or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "specimen unsatisfactory".   
+The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed. Note that an observation may only be reported if there are values to report. For example differential cell counts values may be reported only when &gt; 0.  Because of these options, use-case agreements are required to interpret general observations for null or exceptional values.</t>
+  </si>
+  <si>
+    <t>For many results it is necessary to handle exceptional values in measurements.</t>
+  </si>
+  <si>
+    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obs-6
+</t>
+  </si>
+  <si>
+    <t>Observation.interpretation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abnormal Flag
+</t>
+  </si>
+  <si>
+    <t>High, low, normal, etc.</t>
+  </si>
+  <si>
+    <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
+  </si>
+  <si>
+    <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.</t>
+  </si>
+  <si>
+    <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.</t>
+  </si>
+  <si>
+    <t>Codes identifying interpretations of observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+  </si>
+  <si>
+    <t>Observation.interpretation.id</t>
+  </si>
+  <si>
+    <t>Observation.interpretation.extension</t>
+  </si>
+  <si>
+    <t>Observation.interpretation.coding</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>Observation.interpretation.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.interpretation.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.interpretation.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/CodeSystem/cs-vl-suppression</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>Observation.interpretation.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>Observation.interpretation.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/ValueSet/vs-vl-interpretation</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>Observation.interpretation.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>Observation.interpretation.coding.userSelected</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.interpretation.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>Observation.note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
+  </si>
+  <si>
+    <t>Comments about the observation</t>
+  </si>
+  <si>
+    <t>Comments about the observation or the results.</t>
+  </si>
+  <si>
+    <t>May include general statements about the observation, or statements about significant, unexpected or unreliable results values, or information about its source when relevant to its interpretation.</t>
+  </si>
+  <si>
+    <t>Need to be able to provide free text additional information.</t>
+  </si>
+  <si>
+    <t>Observation.bodySite</t>
+  </si>
+  <si>
+    <t>Observed body part</t>
+  </si>
+  <si>
+    <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
+  </si>
+  <si>
+    <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
+If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
+  </si>
+  <si>
+    <t>Codes describing anatomical locations. May include laterality.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+  </si>
+  <si>
+    <t>Observation.method</t>
+  </si>
+  <si>
+    <t>How it was done</t>
+  </si>
+  <si>
+    <t>Indicates the mechanism used to perform the observation.</t>
+  </si>
+  <si>
+    <t>Only used if not implicit in code for Observation.code.</t>
+  </si>
+  <si>
+    <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
+  </si>
+  <si>
+    <t>Methods for simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+  </si>
+  <si>
+    <t>Observation.specimen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Specimen)
+</t>
+  </si>
+  <si>
+    <t>Specimen used for this observation</t>
+  </si>
+  <si>
+    <t>The specimen that was used when this observation was made.</t>
+  </si>
+  <si>
+    <t>Should only be used if not implicit in code found in `Observation.code`.  Observations are not made on specimens themselves; they are made on a subject, but in many cases by the means of a specimen. Note that although specimens are often involved, they are not always tracked and reported explicitly. Also note that observation resources may be used in contexts that track the specimen explicitly (e.g. Diagnostic Report).</t>
+  </si>
+  <si>
+    <t>Observation.device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Device|DeviceMetric)
+</t>
+  </si>
+  <si>
+    <t>(Measurement) Device</t>
+  </si>
+  <si>
+    <t>The device used to generate the observation data.</t>
+  </si>
+  <si>
+    <t>Note that this is not meant to represent a device involved in the transmission of the result, e.g., a gateway.  Such devices may be documented using the Provenance resource where relevant.</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange</t>
+  </si>
+  <si>
+    <t>Provides guide for interpretation</t>
+  </si>
+  <si>
+    <t>Guidance on how to interpret the value by comparison to a normal or recommended range.  Multiple reference ranges are interpreted as an "OR".   In other words, to represent two distinct target populations, two `referenceRange` elements would be used.</t>
+  </si>
+  <si>
+    <t>Most observations only have one generic reference range. Systems MAY choose to restrict to only supplying the relevant reference range based on knowledge about the patient (e.g., specific to the patient's age, gender, weight and other factors), but this might not be possible or appropriate. Whenever more than one reference range is supplied, the differences between them SHOULD be provided in the reference range and/or age properties.</t>
+  </si>
+  <si>
+    <t>Knowing what values are considered "normal" can help evaluate the significance of a particular result. Need to be able to provide multiple reference ranges for different contexts.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+obs-3:Must have at least a low or a high or text {low.exists() or high.exists() or text.exists()}</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange.id</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange.extension</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange.low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity {SimpleQuantity}
+</t>
+  </si>
+  <si>
+    <t>Low Range, if relevant</t>
+  </si>
+  <si>
+    <t>The value of the low bound of the reference range.  The low bound of the reference range endpoint is inclusive of the value (e.g.  reference range is &gt;=5 - &lt;=9). If the low bound is omitted,  it is assumed to be meaningless (e.g. reference range is &lt;=2.3).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obs-3
+</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange.high</t>
+  </si>
+  <si>
+    <t>High Range, if relevant</t>
+  </si>
+  <si>
+    <t>The value of the high bound of the reference range.  The high bound of the reference range endpoint is inclusive of the value (e.g.  reference range is &gt;=5 - &lt;=9). If the high bound is omitted,  it is assumed to be meaningless (e.g. reference range is &gt;= 2.3).</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange.type</t>
+  </si>
+  <si>
+    <t>Reference range qualifier</t>
+  </si>
+  <si>
+    <t>Codes to indicate the what part of the targeted reference population it applies to. For example, the normal or therapeutic range.</t>
+  </si>
+  <si>
+    <t>This SHOULD be populated if there is more than one range.  If this element is not present then the normal range is assumed.</t>
+  </si>
+  <si>
+    <t>Need to be able to say what kind of reference range this is - normal, recommended, therapeutic, etc.,  - for proper interpretation.</t>
+  </si>
+  <si>
+    <t>Code for the meaning of a reference range.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange.appliesTo</t>
+  </si>
+  <si>
+    <t>Reference range population</t>
+  </si>
+  <si>
+    <t>Codes to indicate the target population this reference range applies to.  For example, a reference range may be based on the normal population or a particular sex or race.  Multiple `appliesTo`  are interpreted as an "AND" of the target populations.  For example, to represent a target population of African American females, both a code of female and a code for African American would be used.</t>
+  </si>
+  <si>
+    <t>This SHOULD be populated if there is more than one range.  If this element is not present then the normal population is assumed.</t>
+  </si>
+  <si>
+    <t>Need to be able to identify the target population for proper interpretation.</t>
+  </si>
+  <si>
+    <t>Codes identifying the population the reference range applies to.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange.age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Range
+</t>
+  </si>
+  <si>
+    <t>Applicable age range, if relevant</t>
+  </si>
+  <si>
+    <t>The age at which this reference range is applicable. This is a neonatal age (e.g. number of weeks at term) if the meaning says so.</t>
+  </si>
+  <si>
+    <t>Some analytes vary greatly over age.</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange.text</t>
+  </si>
+  <si>
+    <t>Text based reference range in an observation</t>
+  </si>
+  <si>
+    <t>Text based reference range in an observation which may be used when a quantitative range is not appropriate for an observation.  An example would be a reference value of "Negative" or a list or table of "normals".</t>
+  </si>
+  <si>
+    <t>Observation.hasMember</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
+</t>
+  </si>
+  <si>
+    <t>Related resource that belongs to the Observation group</t>
+  </si>
+  <si>
+    <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
+  </si>
+  <si>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+  </si>
+  <si>
+    <t>Observation.derivedFrom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+</t>
+  </si>
+  <si>
+    <t>Related measurements the observation is made from</t>
+  </si>
+  <si>
+    <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.</t>
+  </si>
+  <si>
+    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.</t>
+  </si>
+  <si>
+    <t>Observation.component</t>
+  </si>
+  <si>
+    <t>Component results</t>
+  </si>
+  <si>
+    <t>Some observations have multiple component observations.  These component observations are expressed as separate code value pairs that share the same attributes.  Examples include systolic and diastolic component observations for blood pressure measurement and multiple component observations for genetics observations.</t>
+  </si>
+  <si>
+    <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
+  </si>
+  <si>
+    <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
+  </si>
+  <si>
+    <t>Observation.component.id</t>
+  </si>
+  <si>
+    <t>Observation.component.extension</t>
+  </si>
+  <si>
+    <t>Observation.component.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.component.code</t>
+  </si>
+  <si>
+    <t>Type of component observation (code / type)</t>
+  </si>
+  <si>
+    <t>Describes what was observed. Sometimes this is called the observation "code".</t>
+  </si>
+  <si>
+    <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+  </si>
+  <si>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x]</t>
+  </si>
+  <si>
     <t>Quantity
 CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
-  </si>
-  <si>
-    <t>Actual result</t>
-  </si>
-  <si>
-    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
-  </si>
-  <si>
-    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
-  </si>
-  <si>
-    <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obs-7
-</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueInteger</t>
-  </si>
-  <si>
-    <t>valueInteger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integer
-</t>
-  </si>
-  <si>
-    <t>Observation.dataAbsentReason</t>
-  </si>
-  <si>
-    <t>Why the result is missing</t>
-  </si>
-  <si>
-    <t>Provides a reason why the expected value in the element Observation.value[x] is missing.</t>
-  </si>
-  <si>
-    <t>Null or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "specimen unsatisfactory".   
-The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed. Note that an observation may only be reported if there are values to report. For example differential cell counts values may be reported only when &gt; 0.  Because of these options, use-case agreements are required to interpret general observations for null or exceptional values.</t>
-  </si>
-  <si>
-    <t>For many results it is necessary to handle exceptional values in measurements.</t>
-  </si>
-  <si>
-    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obs-6
-</t>
-  </si>
-  <si>
-    <t>Observation.interpretation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal Flag
-</t>
-  </si>
-  <si>
-    <t>High, low, normal, etc.</t>
-  </si>
-  <si>
-    <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
-  </si>
-  <si>
-    <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.</t>
-  </si>
-  <si>
-    <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.</t>
-  </si>
-  <si>
-    <t>Codes identifying interpretations of observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
-  </si>
-  <si>
-    <t>Observation.interpretation.id</t>
-  </si>
-  <si>
-    <t>Observation.interpretation.extension</t>
-  </si>
-  <si>
-    <t>Observation.interpretation.coding</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>Observation.interpretation.coding.id</t>
-  </si>
-  <si>
-    <t>Observation.interpretation.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.interpretation.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>http://openhie.org/fhir/hiv-program-monitoring/CodeSystem/cs-vl-suppression</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>Observation.interpretation.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>Observation.interpretation.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>http://openhie.org/fhir/hiv-program-monitoring/ValueSet/vs-vl-interpretation</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>Observation.interpretation.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>Observation.interpretation.coding.userSelected</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>Observation.interpretation.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>Observation.note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annotation
-</t>
-  </si>
-  <si>
-    <t>Comments about the observation</t>
-  </si>
-  <si>
-    <t>Comments about the observation or the results.</t>
-  </si>
-  <si>
-    <t>May include general statements about the observation, or statements about significant, unexpected or unreliable results values, or information about its source when relevant to its interpretation.</t>
-  </si>
-  <si>
-    <t>Need to be able to provide free text additional information.</t>
-  </si>
-  <si>
-    <t>Observation.bodySite</t>
-  </si>
-  <si>
-    <t>Observed body part</t>
-  </si>
-  <si>
-    <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
-  </si>
-  <si>
-    <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
-If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
-  </si>
-  <si>
-    <t>Codes describing anatomical locations. May include laterality.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
-  </si>
-  <si>
-    <t>Observation.method</t>
-  </si>
-  <si>
-    <t>How it was done</t>
-  </si>
-  <si>
-    <t>Indicates the mechanism used to perform the observation.</t>
-  </si>
-  <si>
-    <t>Only used if not implicit in code for Observation.code.</t>
-  </si>
-  <si>
-    <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
-  </si>
-  <si>
-    <t>Methods for simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
-  </si>
-  <si>
-    <t>Observation.specimen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Specimen)
-</t>
-  </si>
-  <si>
-    <t>Specimen used for this observation</t>
-  </si>
-  <si>
-    <t>The specimen that was used when this observation was made.</t>
-  </si>
-  <si>
-    <t>Should only be used if not implicit in code found in `Observation.code`.  Observations are not made on specimens themselves; they are made on a subject, but in many cases by the means of a specimen. Note that although specimens are often involved, they are not always tracked and reported explicitly. Also note that observation resources may be used in contexts that track the specimen explicitly (e.g. Diagnostic Report).</t>
-  </si>
-  <si>
-    <t>Observation.device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
-</t>
-  </si>
-  <si>
-    <t>(Measurement) Device</t>
-  </si>
-  <si>
-    <t>The device used to generate the observation data.</t>
-  </si>
-  <si>
-    <t>Note that this is not meant to represent a device involved in the transmission of the result, e.g., a gateway.  Such devices may be documented using the Provenance resource where relevant.</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange</t>
-  </si>
-  <si>
-    <t>Provides guide for interpretation</t>
-  </si>
-  <si>
-    <t>Guidance on how to interpret the value by comparison to a normal or recommended range.  Multiple reference ranges are interpreted as an "OR".   In other words, to represent two distinct target populations, two `referenceRange` elements would be used.</t>
-  </si>
-  <si>
-    <t>Most observations only have one generic reference range. Systems MAY choose to restrict to only supplying the relevant reference range based on knowledge about the patient (e.g., specific to the patient's age, gender, weight and other factors), but this might not be possible or appropriate. Whenever more than one reference range is supplied, the differences between them SHOULD be provided in the reference range and/or age properties.</t>
-  </si>
-  <si>
-    <t>Knowing what values are considered "normal" can help evaluate the significance of a particular result. Need to be able to provide multiple reference ranges for different contexts.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-obs-3:Must have at least a low or a high or text {low.exists() or high.exists() or text.exists()}</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.id</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.extension</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.low</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
-</t>
-  </si>
-  <si>
-    <t>Low Range, if relevant</t>
-  </si>
-  <si>
-    <t>The value of the low bound of the reference range.  The low bound of the reference range endpoint is inclusive of the value (e.g.  reference range is &gt;=5 - &lt;=9). If the low bound is omitted,  it is assumed to be meaningless (e.g. reference range is &lt;=2.3).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obs-3
-</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.high</t>
-  </si>
-  <si>
-    <t>High Range, if relevant</t>
-  </si>
-  <si>
-    <t>The value of the high bound of the reference range.  The high bound of the reference range endpoint is inclusive of the value (e.g.  reference range is &gt;=5 - &lt;=9). If the high bound is omitted,  it is assumed to be meaningless (e.g. reference range is &gt;= 2.3).</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.type</t>
-  </si>
-  <si>
-    <t>Reference range qualifier</t>
-  </si>
-  <si>
-    <t>Codes to indicate the what part of the targeted reference population it applies to. For example, the normal or therapeutic range.</t>
-  </si>
-  <si>
-    <t>This SHOULD be populated if there is more than one range.  If this element is not present then the normal range is assumed.</t>
-  </si>
-  <si>
-    <t>Need to be able to say what kind of reference range this is - normal, recommended, therapeutic, etc.,  - for proper interpretation.</t>
-  </si>
-  <si>
-    <t>Code for the meaning of a reference range.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.appliesTo</t>
-  </si>
-  <si>
-    <t>Reference range population</t>
-  </si>
-  <si>
-    <t>Codes to indicate the target population this reference range applies to.  For example, a reference range may be based on the normal population or a particular sex or race.  Multiple `appliesTo`  are interpreted as an "AND" of the target populations.  For example, to represent a target population of African American females, both a code of female and a code for African American would be used.</t>
-  </si>
-  <si>
-    <t>This SHOULD be populated if there is more than one range.  If this element is not present then the normal population is assumed.</t>
-  </si>
-  <si>
-    <t>Need to be able to identify the target population for proper interpretation.</t>
-  </si>
-  <si>
-    <t>Codes identifying the population the reference range applies to.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Range
-</t>
-  </si>
-  <si>
-    <t>Applicable age range, if relevant</t>
-  </si>
-  <si>
-    <t>The age at which this reference range is applicable. This is a neonatal age (e.g. number of weeks at term) if the meaning says so.</t>
-  </si>
-  <si>
-    <t>Some analytes vary greatly over age.</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.text</t>
-  </si>
-  <si>
-    <t>Text based reference range in an observation</t>
-  </si>
-  <si>
-    <t>Text based reference range in an observation which may be used when a quantitative range is not appropriate for an observation.  An example would be a reference value of "Negative" or a list or table of "normals".</t>
-  </si>
-  <si>
-    <t>Observation.hasMember</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
-</t>
-  </si>
-  <si>
-    <t>Related resource that belongs to the Observation group</t>
-  </si>
-  <si>
-    <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
-  </si>
-  <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
-  </si>
-  <si>
-    <t>Observation.derivedFrom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
-</t>
-  </si>
-  <si>
-    <t>Related measurements the observation is made from</t>
-  </si>
-  <si>
-    <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.</t>
-  </si>
-  <si>
-    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.</t>
-  </si>
-  <si>
-    <t>Observation.component</t>
-  </si>
-  <si>
-    <t>Component results</t>
-  </si>
-  <si>
-    <t>Some observations have multiple component observations.  These component observations are expressed as separate code value pairs that share the same attributes.  Examples include systolic and diastolic component observations for blood pressure measurement and multiple component observations for genetics observations.</t>
-  </si>
-  <si>
-    <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
-  </si>
-  <si>
-    <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
-  </si>
-  <si>
-    <t>Observation.component.id</t>
-  </si>
-  <si>
-    <t>Observation.component.extension</t>
-  </si>
-  <si>
-    <t>Observation.component.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.component.code</t>
-  </si>
-  <si>
-    <t>Type of component observation (code / type)</t>
-  </si>
-  <si>
-    <t>Describes what was observed. Sometimes this is called the observation "code".</t>
-  </si>
-  <si>
-    <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
-  </si>
-  <si>
-    <t>Observation.component.value[x]</t>
   </si>
   <si>
     <t>Actual component result</t>
@@ -26923,7 +26923,7 @@
       </c>
       <c r="F213" s="2"/>
       <c r="G213" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H213" t="s" s="2">
         <v>82</v>
@@ -26994,7 +26994,7 @@
         <v>77</v>
       </c>
       <c r="AF213" t="s" s="2">
-        <v>157</v>
+        <v>921</v>
       </c>
       <c r="AG213" t="s" s="2">
         <v>934</v>
@@ -27030,7 +27030,7 @@
       </c>
       <c r="F214" s="2"/>
       <c r="G214" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H214" t="s" s="2">
         <v>82</v>
@@ -27045,7 +27045,7 @@
         <v>83</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="M214" t="s" s="2">
         <v>936</v>
@@ -27126,10 +27126,10 @@
         <v>840</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" t="s" s="2">
@@ -27155,16 +27155,16 @@
         <v>171</v>
       </c>
       <c r="M215" t="s" s="2">
+        <v>944</v>
+      </c>
+      <c r="N215" t="s" s="2">
         <v>945</v>
       </c>
-      <c r="N215" t="s" s="2">
+      <c r="O215" t="s" s="2">
         <v>946</v>
       </c>
-      <c r="O215" t="s" s="2">
+      <c r="P215" t="s" s="2">
         <v>947</v>
-      </c>
-      <c r="P215" t="s" s="2">
-        <v>948</v>
       </c>
       <c r="Q215" t="s" s="2">
         <v>77</v>
@@ -27192,37 +27192,37 @@
         <v>176</v>
       </c>
       <c r="Z215" t="s" s="2">
+        <v>948</v>
+      </c>
+      <c r="AA215" t="s" s="2">
         <v>949</v>
       </c>
-      <c r="AA215" t="s" s="2">
+      <c r="AB215" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC215" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD215" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE215" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF215" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG215" t="s" s="2">
+        <v>943</v>
+      </c>
+      <c r="AH215" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI215" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ215" t="s" s="2">
         <v>950</v>
-      </c>
-      <c r="AB215" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC215" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD215" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE215" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF215" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG215" t="s" s="2">
-        <v>944</v>
-      </c>
-      <c r="AH215" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI215" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ215" t="s" s="2">
-        <v>951</v>
       </c>
       <c r="AK215" t="s" s="2">
         <v>94</v>
@@ -27233,14 +27233,14 @@
         <v>840</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" t="s" s="2">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F216" s="2"/>
       <c r="G216" t="s" s="2">
@@ -27262,16 +27262,16 @@
         <v>171</v>
       </c>
       <c r="M216" t="s" s="2">
+        <v>953</v>
+      </c>
+      <c r="N216" t="s" s="2">
         <v>954</v>
       </c>
-      <c r="N216" t="s" s="2">
+      <c r="O216" t="s" s="2">
         <v>955</v>
       </c>
-      <c r="O216" t="s" s="2">
+      <c r="P216" t="s" s="2">
         <v>956</v>
-      </c>
-      <c r="P216" t="s" s="2">
-        <v>957</v>
       </c>
       <c r="Q216" t="s" s="2">
         <v>77</v>
@@ -27299,11 +27299,11 @@
         <v>176</v>
       </c>
       <c r="Z216" t="s" s="2">
+        <v>957</v>
+      </c>
+      <c r="AA216" t="s" s="2">
         <v>958</v>
       </c>
-      <c r="AA216" t="s" s="2">
-        <v>959</v>
-      </c>
       <c r="AB216" t="s" s="2">
         <v>77</v>
       </c>
@@ -27320,7 +27320,7 @@
         <v>77</v>
       </c>
       <c r="AG216" t="s" s="2">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="AH216" t="s" s="2">
         <v>75</v>
@@ -27340,10 +27340,10 @@
         <v>840</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" t="s" s="2">
@@ -27443,10 +27443,10 @@
         <v>840</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" t="s" s="2">
@@ -27548,10 +27548,10 @@
         <v>840</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C219" t="s" s="2">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" t="s" s="2">
@@ -27577,16 +27577,16 @@
         <v>644</v>
       </c>
       <c r="M219" t="s" s="2">
+        <v>962</v>
+      </c>
+      <c r="N219" t="s" s="2">
         <v>963</v>
       </c>
-      <c r="N219" t="s" s="2">
+      <c r="O219" t="s" s="2">
         <v>964</v>
       </c>
-      <c r="O219" t="s" s="2">
+      <c r="P219" t="s" s="2">
         <v>965</v>
-      </c>
-      <c r="P219" t="s" s="2">
-        <v>966</v>
       </c>
       <c r="Q219" t="s" s="2">
         <v>77</v>
@@ -27635,7 +27635,7 @@
         <v>77</v>
       </c>
       <c r="AG219" t="s" s="2">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="AH219" t="s" s="2">
         <v>75</v>
@@ -27655,10 +27655,10 @@
         <v>840</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" t="s" s="2">
@@ -27758,10 +27758,10 @@
         <v>840</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" t="s" s="2">
@@ -27863,10 +27863,10 @@
         <v>840</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C222" t="s" s="2">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" t="s" s="2">
@@ -27892,16 +27892,16 @@
         <v>96</v>
       </c>
       <c r="M222" t="s" s="2">
+        <v>970</v>
+      </c>
+      <c r="N222" t="s" s="2">
         <v>971</v>
       </c>
-      <c r="N222" t="s" s="2">
+      <c r="O222" t="s" s="2">
         <v>972</v>
       </c>
-      <c r="O222" t="s" s="2">
+      <c r="P222" t="s" s="2">
         <v>973</v>
-      </c>
-      <c r="P222" t="s" s="2">
-        <v>974</v>
       </c>
       <c r="Q222" t="s" s="2">
         <v>77</v>
@@ -27911,46 +27911,46 @@
         <v>77</v>
       </c>
       <c r="T222" t="s" s="2">
+        <v>974</v>
+      </c>
+      <c r="U222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG222" t="s" s="2">
         <v>975</v>
-      </c>
-      <c r="U222" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V222" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W222" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X222" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y222" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z222" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA222" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB222" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC222" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD222" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE222" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF222" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG222" t="s" s="2">
-        <v>976</v>
       </c>
       <c r="AH222" t="s" s="2">
         <v>75</v>
@@ -27970,10 +27970,10 @@
         <v>840</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" t="s" s="2">
@@ -27999,13 +27999,13 @@
         <v>148</v>
       </c>
       <c r="M223" t="s" s="2">
+        <v>977</v>
+      </c>
+      <c r="N223" t="s" s="2">
         <v>978</v>
       </c>
-      <c r="N223" t="s" s="2">
+      <c r="O223" t="s" s="2">
         <v>979</v>
-      </c>
-      <c r="O223" t="s" s="2">
-        <v>980</v>
       </c>
       <c r="P223" s="2"/>
       <c r="Q223" t="s" s="2">
@@ -28055,7 +28055,7 @@
         <v>77</v>
       </c>
       <c r="AG223" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="AH223" t="s" s="2">
         <v>75</v>
@@ -28075,10 +28075,10 @@
         <v>840</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" t="s" s="2">
@@ -28104,14 +28104,14 @@
         <v>102</v>
       </c>
       <c r="M224" t="s" s="2">
+        <v>982</v>
+      </c>
+      <c r="N224" t="s" s="2">
         <v>983</v>
-      </c>
-      <c r="N224" t="s" s="2">
-        <v>984</v>
       </c>
       <c r="O224" s="2"/>
       <c r="P224" t="s" s="2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="Q224" t="s" s="2">
         <v>77</v>
@@ -28140,25 +28140,25 @@
       </c>
       <c r="Z224" s="2"/>
       <c r="AA224" t="s" s="2">
+        <v>985</v>
+      </c>
+      <c r="AB224" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC224" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD224" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE224" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF224" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG224" t="s" s="2">
         <v>986</v>
-      </c>
-      <c r="AB224" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC224" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD224" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE224" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF224" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG224" t="s" s="2">
-        <v>987</v>
       </c>
       <c r="AH224" t="s" s="2">
         <v>75</v>
@@ -28178,10 +28178,10 @@
         <v>840</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" t="s" s="2">
@@ -28207,14 +28207,14 @@
         <v>148</v>
       </c>
       <c r="M225" t="s" s="2">
+        <v>988</v>
+      </c>
+      <c r="N225" t="s" s="2">
         <v>989</v>
-      </c>
-      <c r="N225" t="s" s="2">
-        <v>990</v>
       </c>
       <c r="O225" s="2"/>
       <c r="P225" t="s" s="2">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="Q225" t="s" s="2">
         <v>77</v>
@@ -28243,7 +28243,7 @@
       </c>
       <c r="Z225" s="2"/>
       <c r="AA225" t="s" s="2">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="AB225" t="s" s="2">
         <v>77</v>
@@ -28261,7 +28261,7 @@
         <v>77</v>
       </c>
       <c r="AG225" t="s" s="2">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AH225" t="s" s="2">
         <v>75</v>
@@ -28281,10 +28281,10 @@
         <v>840</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C226" t="s" s="2">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" t="s" s="2">
@@ -28310,16 +28310,16 @@
         <v>210</v>
       </c>
       <c r="M226" t="s" s="2">
+        <v>993</v>
+      </c>
+      <c r="N226" t="s" s="2">
         <v>994</v>
       </c>
-      <c r="N226" t="s" s="2">
+      <c r="O226" t="s" s="2">
         <v>995</v>
       </c>
-      <c r="O226" t="s" s="2">
+      <c r="P226" t="s" s="2">
         <v>996</v>
-      </c>
-      <c r="P226" t="s" s="2">
-        <v>997</v>
       </c>
       <c r="Q226" t="s" s="2">
         <v>77</v>
@@ -28368,7 +28368,7 @@
         <v>77</v>
       </c>
       <c r="AG226" t="s" s="2">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="AH226" t="s" s="2">
         <v>75</v>
@@ -28388,10 +28388,10 @@
         <v>840</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C227" t="s" s="2">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" t="s" s="2">
@@ -28417,16 +28417,16 @@
         <v>148</v>
       </c>
       <c r="M227" t="s" s="2">
+        <v>999</v>
+      </c>
+      <c r="N227" t="s" s="2">
         <v>1000</v>
       </c>
-      <c r="N227" t="s" s="2">
+      <c r="O227" t="s" s="2">
         <v>1001</v>
       </c>
-      <c r="O227" t="s" s="2">
+      <c r="P227" t="s" s="2">
         <v>1002</v>
-      </c>
-      <c r="P227" t="s" s="2">
-        <v>1003</v>
       </c>
       <c r="Q227" t="s" s="2">
         <v>77</v>
@@ -28475,7 +28475,7 @@
         <v>77</v>
       </c>
       <c r="AG227" t="s" s="2">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="AH227" t="s" s="2">
         <v>75</v>
@@ -28495,10 +28495,10 @@
         <v>840</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C228" t="s" s="2">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" t="s" s="2">
@@ -28509,7 +28509,7 @@
         <v>75</v>
       </c>
       <c r="H228" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I228" t="s" s="2">
         <v>77</v>
@@ -28521,19 +28521,19 @@
         <v>77</v>
       </c>
       <c r="L228" t="s" s="2">
+        <v>1005</v>
+      </c>
+      <c r="M228" t="s" s="2">
         <v>1006</v>
       </c>
-      <c r="M228" t="s" s="2">
+      <c r="N228" t="s" s="2">
         <v>1007</v>
       </c>
-      <c r="N228" t="s" s="2">
+      <c r="O228" t="s" s="2">
         <v>1008</v>
       </c>
-      <c r="O228" t="s" s="2">
+      <c r="P228" t="s" s="2">
         <v>1009</v>
-      </c>
-      <c r="P228" t="s" s="2">
-        <v>1010</v>
       </c>
       <c r="Q228" t="s" s="2">
         <v>77</v>
@@ -28582,7 +28582,7 @@
         <v>77</v>
       </c>
       <c r="AG228" t="s" s="2">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="AH228" t="s" s="2">
         <v>75</v>
@@ -28602,10 +28602,10 @@
         <v>840</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C229" t="s" s="2">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" t="s" s="2">
@@ -28631,13 +28631,13 @@
         <v>171</v>
       </c>
       <c r="M229" t="s" s="2">
+        <v>1011</v>
+      </c>
+      <c r="N229" t="s" s="2">
         <v>1012</v>
       </c>
-      <c r="N229" t="s" s="2">
+      <c r="O229" t="s" s="2">
         <v>1013</v>
-      </c>
-      <c r="O229" t="s" s="2">
-        <v>1014</v>
       </c>
       <c r="P229" s="2"/>
       <c r="Q229" t="s" s="2">
@@ -28666,11 +28666,11 @@
         <v>476</v>
       </c>
       <c r="Z229" t="s" s="2">
+        <v>1014</v>
+      </c>
+      <c r="AA229" t="s" s="2">
         <v>1015</v>
       </c>
-      <c r="AA229" t="s" s="2">
-        <v>1016</v>
-      </c>
       <c r="AB229" t="s" s="2">
         <v>77</v>
       </c>
@@ -28687,7 +28687,7 @@
         <v>77</v>
       </c>
       <c r="AG229" t="s" s="2">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="AH229" t="s" s="2">
         <v>75</v>
@@ -28707,10 +28707,10 @@
         <v>840</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C230" t="s" s="2">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" t="s" s="2">
@@ -28736,16 +28736,16 @@
         <v>171</v>
       </c>
       <c r="M230" t="s" s="2">
+        <v>1017</v>
+      </c>
+      <c r="N230" t="s" s="2">
         <v>1018</v>
       </c>
-      <c r="N230" t="s" s="2">
+      <c r="O230" t="s" s="2">
         <v>1019</v>
       </c>
-      <c r="O230" t="s" s="2">
+      <c r="P230" t="s" s="2">
         <v>1020</v>
-      </c>
-      <c r="P230" t="s" s="2">
-        <v>1021</v>
       </c>
       <c r="Q230" t="s" s="2">
         <v>77</v>
@@ -28773,11 +28773,11 @@
         <v>476</v>
       </c>
       <c r="Z230" t="s" s="2">
+        <v>1021</v>
+      </c>
+      <c r="AA230" t="s" s="2">
         <v>1022</v>
       </c>
-      <c r="AA230" t="s" s="2">
-        <v>1023</v>
-      </c>
       <c r="AB230" t="s" s="2">
         <v>77</v>
       </c>
@@ -28794,7 +28794,7 @@
         <v>77</v>
       </c>
       <c r="AG230" t="s" s="2">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AH230" t="s" s="2">
         <v>75</v>
@@ -28814,10 +28814,10 @@
         <v>840</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C231" t="s" s="2">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" t="s" s="2">
@@ -28840,16 +28840,16 @@
         <v>77</v>
       </c>
       <c r="L231" t="s" s="2">
+        <v>1024</v>
+      </c>
+      <c r="M231" t="s" s="2">
         <v>1025</v>
       </c>
-      <c r="M231" t="s" s="2">
+      <c r="N231" t="s" s="2">
         <v>1026</v>
       </c>
-      <c r="N231" t="s" s="2">
+      <c r="O231" t="s" s="2">
         <v>1027</v>
-      </c>
-      <c r="O231" t="s" s="2">
-        <v>1028</v>
       </c>
       <c r="P231" s="2"/>
       <c r="Q231" t="s" s="2">
@@ -28899,7 +28899,7 @@
         <v>77</v>
       </c>
       <c r="AG231" t="s" s="2">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AH231" t="s" s="2">
         <v>75</v>
@@ -28919,10 +28919,10 @@
         <v>840</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C232" t="s" s="2">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" t="s" s="2">
@@ -28945,16 +28945,16 @@
         <v>77</v>
       </c>
       <c r="L232" t="s" s="2">
+        <v>1029</v>
+      </c>
+      <c r="M232" t="s" s="2">
         <v>1030</v>
       </c>
-      <c r="M232" t="s" s="2">
+      <c r="N232" t="s" s="2">
         <v>1031</v>
       </c>
-      <c r="N232" t="s" s="2">
+      <c r="O232" t="s" s="2">
         <v>1032</v>
-      </c>
-      <c r="O232" t="s" s="2">
-        <v>1033</v>
       </c>
       <c r="P232" s="2"/>
       <c r="Q232" t="s" s="2">
@@ -29004,7 +29004,7 @@
         <v>77</v>
       </c>
       <c r="AG232" t="s" s="2">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="AH232" t="s" s="2">
         <v>75</v>
@@ -29024,10 +29024,10 @@
         <v>840</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C233" t="s" s="2">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" t="s" s="2">
@@ -29053,16 +29053,16 @@
         <v>313</v>
       </c>
       <c r="M233" t="s" s="2">
+        <v>1034</v>
+      </c>
+      <c r="N233" t="s" s="2">
         <v>1035</v>
       </c>
-      <c r="N233" t="s" s="2">
+      <c r="O233" t="s" s="2">
         <v>1036</v>
       </c>
-      <c r="O233" t="s" s="2">
+      <c r="P233" t="s" s="2">
         <v>1037</v>
-      </c>
-      <c r="P233" t="s" s="2">
-        <v>1038</v>
       </c>
       <c r="Q233" t="s" s="2">
         <v>77</v>
@@ -29111,7 +29111,7 @@
         <v>77</v>
       </c>
       <c r="AG233" t="s" s="2">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="AH233" t="s" s="2">
         <v>75</v>
@@ -29123,7 +29123,7 @@
         <v>77</v>
       </c>
       <c r="AK233" t="s" s="2">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="234">
@@ -29131,10 +29131,10 @@
         <v>840</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C234" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" t="s" s="2">
@@ -29234,10 +29234,10 @@
         <v>840</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C235" t="s" s="2">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" t="s" s="2">
@@ -29339,10 +29339,10 @@
         <v>840</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C236" t="s" s="2">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" t="s" s="2">
@@ -29446,10 +29446,10 @@
         <v>840</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C237" t="s" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" t="s" s="2">
@@ -29472,13 +29472,13 @@
         <v>77</v>
       </c>
       <c r="L237" t="s" s="2">
+        <v>1043</v>
+      </c>
+      <c r="M237" t="s" s="2">
         <v>1044</v>
       </c>
-      <c r="M237" t="s" s="2">
+      <c r="N237" t="s" s="2">
         <v>1045</v>
-      </c>
-      <c r="N237" t="s" s="2">
-        <v>1046</v>
       </c>
       <c r="O237" s="2"/>
       <c r="P237" s="2"/>
@@ -29529,7 +29529,7 @@
         <v>77</v>
       </c>
       <c r="AG237" t="s" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="AH237" t="s" s="2">
         <v>75</v>
@@ -29538,7 +29538,7 @@
         <v>82</v>
       </c>
       <c r="AJ237" t="s" s="2">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="AK237" t="s" s="2">
         <v>94</v>
@@ -29549,10 +29549,10 @@
         <v>840</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C238" t="s" s="2">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D238" s="2"/>
       <c r="E238" t="s" s="2">
@@ -29575,13 +29575,13 @@
         <v>77</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="M238" t="s" s="2">
+        <v>1048</v>
+      </c>
+      <c r="N238" t="s" s="2">
         <v>1049</v>
-      </c>
-      <c r="N238" t="s" s="2">
-        <v>1050</v>
       </c>
       <c r="O238" s="2"/>
       <c r="P238" s="2"/>
@@ -29632,7 +29632,7 @@
         <v>77</v>
       </c>
       <c r="AG238" t="s" s="2">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="AH238" t="s" s="2">
         <v>75</v>
@@ -29641,7 +29641,7 @@
         <v>82</v>
       </c>
       <c r="AJ238" t="s" s="2">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="AK238" t="s" s="2">
         <v>94</v>
@@ -29652,10 +29652,10 @@
         <v>840</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C239" t="s" s="2">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D239" s="2"/>
       <c r="E239" t="s" s="2">
@@ -29681,16 +29681,16 @@
         <v>171</v>
       </c>
       <c r="M239" t="s" s="2">
+        <v>1051</v>
+      </c>
+      <c r="N239" t="s" s="2">
         <v>1052</v>
       </c>
-      <c r="N239" t="s" s="2">
+      <c r="O239" t="s" s="2">
         <v>1053</v>
       </c>
-      <c r="O239" t="s" s="2">
+      <c r="P239" t="s" s="2">
         <v>1054</v>
-      </c>
-      <c r="P239" t="s" s="2">
-        <v>1055</v>
       </c>
       <c r="Q239" t="s" s="2">
         <v>77</v>
@@ -29718,11 +29718,11 @@
         <v>106</v>
       </c>
       <c r="Z239" t="s" s="2">
+        <v>1055</v>
+      </c>
+      <c r="AA239" t="s" s="2">
         <v>1056</v>
       </c>
-      <c r="AA239" t="s" s="2">
-        <v>1057</v>
-      </c>
       <c r="AB239" t="s" s="2">
         <v>77</v>
       </c>
@@ -29739,7 +29739,7 @@
         <v>77</v>
       </c>
       <c r="AG239" t="s" s="2">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="AH239" t="s" s="2">
         <v>75</v>
@@ -29759,10 +29759,10 @@
         <v>840</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C240" t="s" s="2">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" t="s" s="2">
@@ -29788,16 +29788,16 @@
         <v>171</v>
       </c>
       <c r="M240" t="s" s="2">
+        <v>1058</v>
+      </c>
+      <c r="N240" t="s" s="2">
         <v>1059</v>
       </c>
-      <c r="N240" t="s" s="2">
+      <c r="O240" t="s" s="2">
         <v>1060</v>
       </c>
-      <c r="O240" t="s" s="2">
+      <c r="P240" t="s" s="2">
         <v>1061</v>
-      </c>
-      <c r="P240" t="s" s="2">
-        <v>1062</v>
       </c>
       <c r="Q240" t="s" s="2">
         <v>77</v>
@@ -29825,11 +29825,11 @@
         <v>476</v>
       </c>
       <c r="Z240" t="s" s="2">
+        <v>1062</v>
+      </c>
+      <c r="AA240" t="s" s="2">
         <v>1063</v>
       </c>
-      <c r="AA240" t="s" s="2">
-        <v>1064</v>
-      </c>
       <c r="AB240" t="s" s="2">
         <v>77</v>
       </c>
@@ -29846,7 +29846,7 @@
         <v>77</v>
       </c>
       <c r="AG240" t="s" s="2">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="AH240" t="s" s="2">
         <v>75</v>
@@ -29866,10 +29866,10 @@
         <v>840</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C241" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D241" s="2"/>
       <c r="E241" t="s" s="2">
@@ -29892,17 +29892,17 @@
         <v>77</v>
       </c>
       <c r="L241" t="s" s="2">
+        <v>1065</v>
+      </c>
+      <c r="M241" t="s" s="2">
         <v>1066</v>
       </c>
-      <c r="M241" t="s" s="2">
+      <c r="N241" t="s" s="2">
         <v>1067</v>
-      </c>
-      <c r="N241" t="s" s="2">
-        <v>1068</v>
       </c>
       <c r="O241" s="2"/>
       <c r="P241" t="s" s="2">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="Q241" t="s" s="2">
         <v>77</v>
@@ -29951,7 +29951,7 @@
         <v>77</v>
       </c>
       <c r="AG241" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="AH241" t="s" s="2">
         <v>75</v>
@@ -29971,10 +29971,10 @@
         <v>840</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C242" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D242" s="2"/>
       <c r="E242" t="s" s="2">
@@ -30000,10 +30000,10 @@
         <v>148</v>
       </c>
       <c r="M242" t="s" s="2">
+        <v>1070</v>
+      </c>
+      <c r="N242" t="s" s="2">
         <v>1071</v>
-      </c>
-      <c r="N242" t="s" s="2">
-        <v>1072</v>
       </c>
       <c r="O242" s="2"/>
       <c r="P242" s="2"/>
@@ -30054,7 +30054,7 @@
         <v>77</v>
       </c>
       <c r="AG242" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="AH242" t="s" s="2">
         <v>75</v>
@@ -30074,10 +30074,10 @@
         <v>840</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C243" t="s" s="2">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D243" s="2"/>
       <c r="E243" t="s" s="2">
@@ -30100,16 +30100,16 @@
         <v>83</v>
       </c>
       <c r="L243" t="s" s="2">
+        <v>1073</v>
+      </c>
+      <c r="M243" t="s" s="2">
         <v>1074</v>
       </c>
-      <c r="M243" t="s" s="2">
+      <c r="N243" t="s" s="2">
         <v>1075</v>
       </c>
-      <c r="N243" t="s" s="2">
+      <c r="O243" t="s" s="2">
         <v>1076</v>
-      </c>
-      <c r="O243" t="s" s="2">
-        <v>1077</v>
       </c>
       <c r="P243" s="2"/>
       <c r="Q243" t="s" s="2">
@@ -30159,7 +30159,7 @@
         <v>77</v>
       </c>
       <c r="AG243" t="s" s="2">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AH243" t="s" s="2">
         <v>75</v>
@@ -30179,10 +30179,10 @@
         <v>840</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C244" t="s" s="2">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D244" s="2"/>
       <c r="E244" t="s" s="2">
@@ -30205,16 +30205,16 @@
         <v>83</v>
       </c>
       <c r="L244" t="s" s="2">
+        <v>1078</v>
+      </c>
+      <c r="M244" t="s" s="2">
         <v>1079</v>
       </c>
-      <c r="M244" t="s" s="2">
+      <c r="N244" t="s" s="2">
         <v>1080</v>
       </c>
-      <c r="N244" t="s" s="2">
+      <c r="O244" t="s" s="2">
         <v>1081</v>
-      </c>
-      <c r="O244" t="s" s="2">
-        <v>1082</v>
       </c>
       <c r="P244" s="2"/>
       <c r="Q244" t="s" s="2">
@@ -30264,7 +30264,7 @@
         <v>77</v>
       </c>
       <c r="AG244" t="s" s="2">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="AH244" t="s" s="2">
         <v>75</v>
@@ -30284,10 +30284,10 @@
         <v>840</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C245" t="s" s="2">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D245" s="2"/>
       <c r="E245" t="s" s="2">
@@ -30313,16 +30313,16 @@
         <v>313</v>
       </c>
       <c r="M245" t="s" s="2">
+        <v>1083</v>
+      </c>
+      <c r="N245" t="s" s="2">
         <v>1084</v>
       </c>
-      <c r="N245" t="s" s="2">
+      <c r="O245" t="s" s="2">
         <v>1085</v>
       </c>
-      <c r="O245" t="s" s="2">
+      <c r="P245" t="s" s="2">
         <v>1086</v>
-      </c>
-      <c r="P245" t="s" s="2">
-        <v>1087</v>
       </c>
       <c r="Q245" t="s" s="2">
         <v>77</v>
@@ -30371,7 +30371,7 @@
         <v>77</v>
       </c>
       <c r="AG245" t="s" s="2">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="AH245" t="s" s="2">
         <v>75</v>
@@ -30391,10 +30391,10 @@
         <v>840</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C246" t="s" s="2">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D246" s="2"/>
       <c r="E246" t="s" s="2">
@@ -30494,10 +30494,10 @@
         <v>840</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C247" t="s" s="2">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D247" s="2"/>
       <c r="E247" t="s" s="2">
@@ -30599,10 +30599,10 @@
         <v>840</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C248" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" t="s" s="2">
@@ -30706,10 +30706,10 @@
         <v>840</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C249" t="s" s="2">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D249" s="2"/>
       <c r="E249" t="s" s="2">
@@ -30735,13 +30735,13 @@
         <v>171</v>
       </c>
       <c r="M249" t="s" s="2">
+        <v>1091</v>
+      </c>
+      <c r="N249" t="s" s="2">
         <v>1092</v>
       </c>
-      <c r="N249" t="s" s="2">
+      <c r="O249" t="s" s="2">
         <v>1093</v>
-      </c>
-      <c r="O249" t="s" s="2">
-        <v>1094</v>
       </c>
       <c r="P249" t="s" s="2">
         <v>895</v>
@@ -30772,11 +30772,11 @@
         <v>476</v>
       </c>
       <c r="Z249" t="s" s="2">
+        <v>1094</v>
+      </c>
+      <c r="AA249" t="s" s="2">
         <v>1095</v>
       </c>
-      <c r="AA249" t="s" s="2">
-        <v>1096</v>
-      </c>
       <c r="AB249" t="s" s="2">
         <v>77</v>
       </c>
@@ -30793,7 +30793,7 @@
         <v>77</v>
       </c>
       <c r="AG249" t="s" s="2">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="AH249" t="s" s="2">
         <v>82</v>
@@ -30813,10 +30813,10 @@
         <v>840</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C250" t="s" s="2">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D250" s="2"/>
       <c r="E250" t="s" s="2">
@@ -30839,7 +30839,7 @@
         <v>83</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>935</v>
+        <v>1097</v>
       </c>
       <c r="M250" t="s" s="2">
         <v>1098</v>
@@ -30900,7 +30900,7 @@
         <v>77</v>
       </c>
       <c r="AG250" t="s" s="2">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="AH250" t="s" s="2">
         <v>75</v>
@@ -30958,7 +30958,7 @@
         <v>1103</v>
       </c>
       <c r="P251" t="s" s="2">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="Q251" t="s" s="2">
         <v>77</v>
@@ -30986,10 +30986,10 @@
         <v>176</v>
       </c>
       <c r="Z251" t="s" s="2">
+        <v>948</v>
+      </c>
+      <c r="AA251" t="s" s="2">
         <v>949</v>
-      </c>
-      <c r="AA251" t="s" s="2">
-        <v>950</v>
       </c>
       <c r="AB251" t="s" s="2">
         <v>77</v>
@@ -31016,7 +31016,7 @@
         <v>82</v>
       </c>
       <c r="AJ251" t="s" s="2">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="AK251" t="s" s="2">
         <v>94</v>
@@ -31034,7 +31034,7 @@
       </c>
       <c r="D252" s="2"/>
       <c r="E252" t="s" s="2">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F252" s="2"/>
       <c r="G252" t="s" s="2">
@@ -31056,16 +31056,16 @@
         <v>171</v>
       </c>
       <c r="M252" t="s" s="2">
+        <v>953</v>
+      </c>
+      <c r="N252" t="s" s="2">
         <v>954</v>
       </c>
-      <c r="N252" t="s" s="2">
+      <c r="O252" t="s" s="2">
         <v>955</v>
       </c>
-      <c r="O252" t="s" s="2">
+      <c r="P252" t="s" s="2">
         <v>956</v>
-      </c>
-      <c r="P252" t="s" s="2">
-        <v>957</v>
       </c>
       <c r="Q252" t="s" s="2">
         <v>77</v>
@@ -31093,10 +31093,10 @@
         <v>176</v>
       </c>
       <c r="Z252" t="s" s="2">
+        <v>957</v>
+      </c>
+      <c r="AA252" t="s" s="2">
         <v>958</v>
-      </c>
-      <c r="AA252" t="s" s="2">
-        <v>959</v>
       </c>
       <c r="AB252" t="s" s="2">
         <v>77</v>
@@ -31169,10 +31169,10 @@
         <v>1107</v>
       </c>
       <c r="O253" t="s" s="2">
+        <v>1036</v>
+      </c>
+      <c r="P253" t="s" s="2">
         <v>1037</v>
-      </c>
-      <c r="P253" t="s" s="2">
-        <v>1038</v>
       </c>
       <c r="Q253" t="s" s="2">
         <v>77</v>

--- a/branches/viral-load-suppression_fig-28/all-profiles.xlsx
+++ b/branches/viral-load-suppression_fig-28/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T09:57:25+00:00</t>
+    <t>2023-02-08T09:57:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/viral-load-suppression_fig-28/all-profiles.xlsx
+++ b/branches/viral-load-suppression_fig-28/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T09:57:31+00:00</t>
+    <t>2023-02-08T11:02:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -26180,7 +26180,7 @@
       </c>
       <c r="F206" s="2"/>
       <c r="G206" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H206" t="s" s="2">
         <v>82</v>

--- a/branches/viral-load-suppression_fig-28/all-profiles.xlsx
+++ b/branches/viral-load-suppression_fig-28/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T11:02:36+00:00</t>
+    <t>2023-02-08T11:03:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/viral-load-suppression_fig-28/all-profiles.xlsx
+++ b/branches/viral-load-suppression_fig-28/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T12:16:58+00:00</t>
+    <t>2023-02-08T12:21:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/viral-load-suppression_fig-28/all-profiles.xlsx
+++ b/branches/viral-load-suppression_fig-28/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12191" uniqueCount="1215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12191" uniqueCount="1214">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T12:21:52+00:00</t>
+    <t>2023-02-08T12:26:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -788,7 +788,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(Patient|Group)
 </t>
   </si>
   <si>
@@ -3792,10 +3792,6 @@
   </si>
   <si>
     <t>This profile represents the facility the patient is being transferred from</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|Group)
-</t>
   </si>
 </sst>
 </file>
@@ -38214,7 +38210,7 @@
         <v>83</v>
       </c>
       <c r="L316" t="s" s="2">
-        <v>1214</v>
+        <v>249</v>
       </c>
       <c r="M316" t="s" s="2">
         <v>829</v>

--- a/branches/viral-load-suppression_fig-28/all-profiles.xlsx
+++ b/branches/viral-load-suppression_fig-28/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T12:26:30+00:00</t>
+    <t>2023-02-08T12:26:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
